--- a/Output/PBL/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/PBL/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cust" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -133,15 +135,47 @@
   </si>
   <si>
     <t xml:space="preserve">CB-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -177,10 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1866,4 +1902,1333 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="n">
+        <v>7308597.08</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>36012851.3271</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>44287132.8741</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>313214070.4009</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>50674198.51</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>46524319.22</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>43920587.99</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>50149178.9511</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>50479633.47</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>39272543.07</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>-2807957.255</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>-3662530.42</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>-5806358.84</v>
+      </c>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3" t="n">
+        <v>-978229.8125</v>
+      </c>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>25389496</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>36692076</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>51426846.84</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>73669810.55</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>82226606.11</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>57169660.7557</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>12029258.0034</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>19532260.9392</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>5625217</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>4118724.64</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>-4984585.3282</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>-3505834.31</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>-1127058.125</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>-241405.53</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>-631100.11</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3" t="n">
+        <v>650539.94</v>
+      </c>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="n">
+        <v>16750066</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>19225298</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>420028</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>610690</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>1660025</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>204601</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="n">
+        <v>4057904</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>9849109.6299</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>13478174.6</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>15224777.2999</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>14483291.92</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>13666913.57</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>13274217.3</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>14036649.91</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>-1570057.69</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="3" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="3" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="3" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="3" t="str">
+        <f>Sum(V2:V4)</f>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f>Sum(W2:W4)</f>
+      </c>
+      <c r="X5" s="3" t="str">
+        <f>Sum(X2:X4)</f>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f>Sum(Y2:Y4)</f>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <f>Sum(Z2:Z4)</f>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <f>Sum(AA2:AA4)</f>
+      </c>
+      <c r="AB5" s="3" t="str">
+        <f>Sum(AB2:AB4)</f>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <f>Sum(AC2:AC4)</f>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <f>Sum(AD2:AD4)</f>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f>Sum(AE2:AE4)</f>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <f>Sum(AF2:AF4)</f>
+      </c>
+      <c r="AG5" s="3" t="str">
+        <f>Sum(AG2:AG4)</f>
+      </c>
+      <c r="AH5" s="3" t="str">
+        <f>Sum(AH2:AH4)</f>
+      </c>
+      <c r="AI5" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="n">
+        <v>36369.3242614467</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="n">
+        <v>10034421.8315639</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>49019723.0139141</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>59096308.6292182</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>410500768.611645</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>65230406.0951205</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>58815489.3050353</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>54954757.8500438</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>62250460.4146739</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>61620488.5886663</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>46898839.0815796</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>-3292357.52817914</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>-4238978.74564428</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>-6496628.9972297</v>
+      </c>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3" t="n">
+        <v>-978229.8125</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>38135791.5392509</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>53378640.3947858</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>72809965.1503317</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>102180136.009531</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>112893957.958562</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>77817802.0282162</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>16051721.9656177</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>25599131.3480972</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>7241065.47458792</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>5206842.55193074</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>-6236862.76141113</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>-4351812.02363979</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>-1375799.85345179</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>-288283.829358684</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>-739971.092684309</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3" t="n">
+        <v>727877.272921022</v>
+      </c>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="n">
+        <v>23232366.2742014</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>26395592.4588364</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>560481.17613479</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>800375.008895914</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>2136868.62470422</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>258654.143231965</v>
+      </c>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3" t="n">
+        <v>5037099.26267908</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>12022808.1275285</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>16095487.8972861</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>17851201.2848203</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>16762827.7653573</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>15291660.3069427</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>13881467.5390301</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>14036649.91</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>-1529218.40171444</v>
+      </c>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>25389496</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>36692076</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>51426846.84</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>90419876.55</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>108760501.19</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>93182512.0828</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>56316390.8775</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>53845304.4651</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>56299415.51</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>50643043.86</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>38936002.6618</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>46643344.6411</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>49352575.345</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>39031137.54</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>-3439057.365</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>-3662530.42</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>-5155818.9</v>
+      </c>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4" t="n">
+        <v>-978229.8125</v>
+      </c>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4" t="n">
+        <v>278901026.875</v>
+      </c>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4" t="n">
+        <v>4057904</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>9855834</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>13478174.6</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>15226997.11</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>14485056.26</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>13666913.57</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>13274217.3</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>14036649.91</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>-1570057.69</v>
+      </c>
+      <c r="AI3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4" t="n">
+        <v>420028</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>610690</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1660025</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>204601</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4" t="n">
+        <v>-6724.3701</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>-2219.8101</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>-1764.34</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f>Sum(O2:O5)</f>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f>Sum(P2:P5)</f>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f>Sum(Q2:Q5)</f>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f>Sum(R2:R5)</f>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f>Sum(S2:S5)</f>
+      </c>
+      <c r="T6" s="4" t="str">
+        <f>Sum(T2:T5)</f>
+      </c>
+      <c r="U6" s="4" t="str">
+        <f>Sum(U2:U5)</f>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f>Sum(V2:V5)</f>
+      </c>
+      <c r="W6" s="4" t="str">
+        <f>Sum(W2:W5)</f>
+      </c>
+      <c r="X6" s="4" t="str">
+        <f>Sum(X2:X5)</f>
+      </c>
+      <c r="Y6" s="4" t="str">
+        <f>Sum(Y2:Y5)</f>
+      </c>
+      <c r="Z6" s="4" t="str">
+        <f>Sum(Z2:Z5)</f>
+      </c>
+      <c r="AA6" s="4" t="str">
+        <f>Sum(AA2:AA5)</f>
+      </c>
+      <c r="AB6" s="4" t="str">
+        <f>Sum(AB2:AB5)</f>
+      </c>
+      <c r="AC6" s="4" t="str">
+        <f>Sum(AC2:AC5)</f>
+      </c>
+      <c r="AD6" s="4" t="str">
+        <f>Sum(AD2:AD5)</f>
+      </c>
+      <c r="AE6" s="4" t="str">
+        <f>Sum(AE2:AE5)</f>
+      </c>
+      <c r="AF6" s="4" t="str">
+        <f>Sum(AF2:AF5)</f>
+      </c>
+      <c r="AG6" s="4" t="str">
+        <f>Sum(AG2:AG5)</f>
+      </c>
+      <c r="AH6" s="4" t="str">
+        <f>Sum(AH2:AH5)</f>
+      </c>
+      <c r="AI6" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>38135791.5392509</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>53378640.3947858</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>72809965.1503317</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>125412502.283733</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>149323972.248962</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>126837525.04213</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>75148030.5948359</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>70570069.9868306</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>72471471.5697084</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>64022331.856966</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>48717895.0886327</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>57898648.3910341</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>60244688.7352145</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>46610555.2522209</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>-4032328.62086345</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>-4238978.74564428</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>-5768751.72430868</v>
+      </c>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4" t="n">
+        <v>-978229.8125</v>
+      </c>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4" t="n">
+        <v>365529829.972912</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4" t="n">
+        <v>5037099.26267908</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>12031016.5661112</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>16095487.8972861</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>17853804.0340185</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>16764869.7961126</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>15291660.3069427</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>13881467.5390301</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>14036649.91</v>
+      </c>
+      <c r="AH11" s="4" t="n">
+        <v>-1529218.40171444</v>
+      </c>
+      <c r="AI11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4" t="n">
+        <v>36369.3242614467</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4" t="n">
+        <v>560481.17613479</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>800375.008895914</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>2136868.62470422</v>
+      </c>
+      <c r="X12" s="4" t="n">
+        <v>258654.143231965</v>
+      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4" t="n">
+        <v>-8208.43858264684</v>
+      </c>
+      <c r="AB13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4" t="n">
+        <v>-2602.74919814016</v>
+      </c>
+      <c r="AD13" s="4" t="n">
+        <v>-2042.03075536231</v>
+      </c>
+      <c r="AE13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/PBL/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -171,11 +171,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -211,12 +212,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2622,63 +2624,63 @@
       <c r="N2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="5" t="n">
         <v>25389496</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="5" t="n">
         <v>36692076</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="5" t="n">
         <v>51426846.84</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="5" t="n">
         <v>90419876.55</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="5" t="n">
         <v>108760501.19</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="5" t="n">
         <v>93182512.0828</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="5" t="n">
         <v>56316390.8775</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="5" t="n">
         <v>53845304.4651</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>56299415.51</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="5" t="n">
         <v>50643043.86</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>38936002.6618</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="5" t="n">
         <v>46643344.6411</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="5" t="n">
         <v>49352575.345</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>39031137.54</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="5" t="n">
         <v>-3439057.365</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="5" t="n">
         <v>-3662530.42</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="5" t="n">
         <v>-5155818.9</v>
       </c>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4" t="n">
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5" t="n">
         <v>-978229.8125</v>
       </c>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2693,47 +2695,47 @@
       <c r="N3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4" t="n">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5" t="n">
         <v>278901026.875</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="n">
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5" t="n">
         <v>4057904</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="5" t="n">
         <v>9855834</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="5" t="n">
         <v>13478174.6</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="5" t="n">
         <v>15226997.11</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="5" t="n">
         <v>14485056.26</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="5" t="n">
         <v>13666913.57</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="5" t="n">
         <v>13274217.3</v>
       </c>
-      <c r="AG3" s="4" t="n">
+      <c r="AG3" s="5" t="n">
         <v>14036649.91</v>
       </c>
-      <c r="AH3" s="4" t="n">
+      <c r="AH3" s="5" t="n">
         <v>-1570057.69</v>
       </c>
-      <c r="AI3" s="4"/>
+      <c r="AI3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2748,37 +2750,37 @@
       <c r="N4" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="n">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="n">
         <v>25000</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4" t="n">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5" t="n">
         <v>420028</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="V4" s="5" t="n">
         <v>610690</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="5" t="n">
         <v>1660025</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="X4" s="5" t="n">
         <v>204601</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2793,41 +2795,41 @@
       <c r="N5" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4" t="n">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4" t="n">
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5" t="n">
         <v>-6724.3701</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AC5" s="5" t="n">
         <v>-2219.8101</v>
       </c>
-      <c r="AD5" s="4" t="n">
+      <c r="AD5" s="5" t="n">
         <v>-1764.34</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2842,67 +2844,67 @@
       <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="4" t="str">
+      <c r="O6" s="5" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="4" t="str">
+      <c r="P6" s="5" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="4" t="str">
+      <c r="Q6" s="5" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="4" t="str">
+      <c r="R6" s="5" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="4" t="str">
+      <c r="S6" s="5" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="4" t="str">
+      <c r="T6" s="5" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="4" t="str">
+      <c r="U6" s="5" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="4" t="str">
+      <c r="V6" s="5" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="4" t="str">
+      <c r="W6" s="5" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="4" t="str">
+      <c r="X6" s="5" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="4" t="str">
+      <c r="Y6" s="5" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="4" t="str">
+      <c r="Z6" s="5" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="4" t="str">
+      <c r="AA6" s="5" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="4" t="str">
+      <c r="AB6" s="5" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="4" t="str">
+      <c r="AC6" s="5" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="4" t="str">
+      <c r="AD6" s="5" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="4" t="str">
+      <c r="AE6" s="5" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="4" t="str">
+      <c r="AF6" s="5" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="4" t="str">
+      <c r="AG6" s="5" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="4" t="str">
+      <c r="AH6" s="5" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="4"/>
+      <c r="AI6" s="5"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2991,63 +2993,63 @@
       <c r="N10" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="O10" s="5" t="n">
         <v>38135791.5392509</v>
       </c>
-      <c r="P10" s="4" t="n">
+      <c r="P10" s="5" t="n">
         <v>53378640.3947858</v>
       </c>
-      <c r="Q10" s="4" t="n">
+      <c r="Q10" s="5" t="n">
         <v>72809965.1503317</v>
       </c>
-      <c r="R10" s="4" t="n">
+      <c r="R10" s="5" t="n">
         <v>125412502.283733</v>
       </c>
-      <c r="S10" s="4" t="n">
+      <c r="S10" s="5" t="n">
         <v>149323972.248962</v>
       </c>
-      <c r="T10" s="4" t="n">
+      <c r="T10" s="5" t="n">
         <v>126837525.04213</v>
       </c>
-      <c r="U10" s="4" t="n">
+      <c r="U10" s="5" t="n">
         <v>75148030.5948359</v>
       </c>
-      <c r="V10" s="4" t="n">
+      <c r="V10" s="5" t="n">
         <v>70570069.9868306</v>
       </c>
-      <c r="W10" s="4" t="n">
+      <c r="W10" s="5" t="n">
         <v>72471471.5697084</v>
       </c>
-      <c r="X10" s="4" t="n">
+      <c r="X10" s="5" t="n">
         <v>64022331.856966</v>
       </c>
-      <c r="Y10" s="4" t="n">
+      <c r="Y10" s="5" t="n">
         <v>48717895.0886327</v>
       </c>
-      <c r="Z10" s="4" t="n">
+      <c r="Z10" s="5" t="n">
         <v>57898648.3910341</v>
       </c>
-      <c r="AA10" s="4" t="n">
+      <c r="AA10" s="5" t="n">
         <v>60244688.7352145</v>
       </c>
-      <c r="AB10" s="4" t="n">
+      <c r="AB10" s="5" t="n">
         <v>46610555.2522209</v>
       </c>
-      <c r="AC10" s="4" t="n">
+      <c r="AC10" s="5" t="n">
         <v>-4032328.62086345</v>
       </c>
-      <c r="AD10" s="4" t="n">
+      <c r="AD10" s="5" t="n">
         <v>-4238978.74564428</v>
       </c>
-      <c r="AE10" s="4" t="n">
+      <c r="AE10" s="5" t="n">
         <v>-5768751.72430868</v>
       </c>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4" t="n">
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5" t="n">
         <v>-978229.8125</v>
       </c>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3062,47 +3064,47 @@
       <c r="N11" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4" t="n">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5" t="n">
         <v>365529829.972912</v>
       </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4" t="n">
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5" t="n">
         <v>5037099.26267908</v>
       </c>
-      <c r="AA11" s="4" t="n">
+      <c r="AA11" s="5" t="n">
         <v>12031016.5661112</v>
       </c>
-      <c r="AB11" s="4" t="n">
+      <c r="AB11" s="5" t="n">
         <v>16095487.8972861</v>
       </c>
-      <c r="AC11" s="4" t="n">
+      <c r="AC11" s="5" t="n">
         <v>17853804.0340185</v>
       </c>
-      <c r="AD11" s="4" t="n">
+      <c r="AD11" s="5" t="n">
         <v>16764869.7961126</v>
       </c>
-      <c r="AE11" s="4" t="n">
+      <c r="AE11" s="5" t="n">
         <v>15291660.3069427</v>
       </c>
-      <c r="AF11" s="4" t="n">
+      <c r="AF11" s="5" t="n">
         <v>13881467.5390301</v>
       </c>
-      <c r="AG11" s="4" t="n">
+      <c r="AG11" s="5" t="n">
         <v>14036649.91</v>
       </c>
-      <c r="AH11" s="4" t="n">
+      <c r="AH11" s="5" t="n">
         <v>-1529218.40171444</v>
       </c>
-      <c r="AI11" s="4"/>
+      <c r="AI11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3117,37 +3119,37 @@
       <c r="N12" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4" t="n">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="n">
         <v>36369.3242614467</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4" t="n">
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5" t="n">
         <v>560481.17613479</v>
       </c>
-      <c r="V12" s="4" t="n">
+      <c r="V12" s="5" t="n">
         <v>800375.008895914</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="5" t="n">
         <v>2136868.62470422</v>
       </c>
-      <c r="X12" s="4" t="n">
+      <c r="X12" s="5" t="n">
         <v>258654.143231965</v>
       </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3162,41 +3164,41 @@
       <c r="N13" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4" t="n">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="W13" s="4" t="n">
+      <c r="W13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4" t="n">
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5" t="n">
         <v>-8208.43858264684</v>
       </c>
-      <c r="AB13" s="4" t="n">
+      <c r="AB13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AC13" s="4" t="n">
+      <c r="AC13" s="5" t="n">
         <v>-2602.74919814016</v>
       </c>
-      <c r="AD13" s="4" t="n">
+      <c r="AD13" s="5" t="n">
         <v>-2042.03075536231</v>
       </c>
-      <c r="AE13" s="4" t="n">
+      <c r="AE13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3205,27 +3207,27 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/PBL/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -172,11 +172,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -214,11 +214,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
